--- a/数据整理/stocks/港股/00148-建滔集团.xlsx
+++ b/数据整理/stocks/港股/00148-建滔集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.96</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.96</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +602,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +642,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.66</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.65</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -622,26 +670,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007108</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -650,25 +708,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.34</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.74</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -678,26 +746,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00148-建滔集团.xlsx
+++ b/数据整理/stocks/港股/00148-建滔集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,6 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>93.66</t>
@@ -770,6 +770,210 @@
       </c>
       <c r="H5" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00148-建滔集团.xlsx
+++ b/数据整理/stocks/港股/00148-建滔集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -979,4 +980,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00148-建滔集团.xlsx
+++ b/数据整理/stocks/港股/00148-建滔集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1112,4 +1113,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00148-建滔集团.xlsx
+++ b/数据整理/stocks/港股/00148-建滔集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1121,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1132,17 +1133,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1152,14 +1173,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1168,14 +1211,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -1184,7 +1315,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1200,13 +1331,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00148-建滔集团.xlsx
+++ b/数据整理/stocks/港股/00148-建滔集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1252,7 +1253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1263,17 +1264,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1283,14 +1304,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1299,14 +1342,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1315,14 +1380,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1331,7 +1418,127 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1347,13 +1554,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00148-建滔集团.xlsx
+++ b/数据整理/stocks/港股/00148-建滔集团.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,127 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0286</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -607,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -647,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -713,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -759,21 +761,26 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,7 +815,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -848,22 +855,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0296</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -876,107 +883,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1123,7 +1056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,7 +1077,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1184,22 +1117,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.0296</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1212,33 +1145,107 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>007108</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1274,7 +1281,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1314,26 +1321,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1342,36 +1349,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1380,36 +1387,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1426,26 +1433,21 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1459,128 +1461,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00148-建滔集团.xlsx
+++ b/数据整理/stocks/港股/00148-建滔集团.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -519,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -781,136 +930,6 @@
       </c>
       <c r="H5" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +964,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -990,21 +1009,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0270</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1023,26 +1042,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,26 +1134,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0296</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1145,108 +1162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1321,26 +1266,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0296</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1359,17 +1304,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1378,7 +1323,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1397,26 +1342,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1433,21 +1376,26 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1456,6 +1404,207 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00148-建滔集团.xlsx
+++ b/数据整理/stocks/港股/00148-建滔集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -568,7 +569,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0381</t>
+          <t>0.0467</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0378</t>
+          <t>0.0433</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,6 +749,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -930,136 +1079,6 @@
       </c>
       <c r="H5" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1113,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1139,21 +1158,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0270</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1172,26 +1191,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1266,26 +1283,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0296</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1294,108 +1311,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1470,26 +1415,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0296</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1508,17 +1453,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1527,7 +1472,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1546,26 +1491,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1582,21 +1525,26 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1605,6 +1553,207 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
